--- a/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_捷豹组.xlsx
@@ -201,31 +201,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>收款账号墨果切换到朔羡</t>
-    <rPh sb="0" eb="1">
-      <t>shou'k</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhang'h</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>mo'guo</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>qie'h</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shuo</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>payapi</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -251,6 +226,46 @@
     <t>捷豹组</t>
     <rPh sb="0" eb="1">
       <t>jie'bao'zu</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款账号墨果切换到朔羡(IOS微信支付3.3.0版本提示升级)</t>
+    <rPh sb="0" eb="1">
+      <t>shou'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mo'guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qie'h</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wei'xin</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ban'b</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ti'shi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>sheng'ji</t>
     </rPh>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1085,7 +1100,7 @@
   <dimension ref="A1:U178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1184,13 +1199,13 @@
         <v>43</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>26</v>
@@ -1206,13 +1221,13 @@
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" s="24"/>
       <c r="O2" s="16"/>
@@ -1239,7 +1254,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>26</v>
@@ -1255,13 +1270,13 @@
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="M3" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3" s="24"/>
       <c r="O3" s="16"/>

--- a/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_捷豹组.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>No</t>
   </si>
@@ -267,6 +267,21 @@
     <rPh sb="28" eb="29">
       <t>sheng'ji</t>
     </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈美</t>
+    <rPh sb="0" eb="1">
+      <t>chen'm</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +523,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,6 +572,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -707,7 +734,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="22">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -720,12 +747,16 @@
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1099,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1227,11 +1258,17 @@
         <v>51</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="16">
+        <v>42670</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="21"/>
@@ -1278,9 +1315,15 @@
       <c r="M3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="24"/>
+      <c r="N3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="16">
+        <v>42670</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="21"/>

--- a/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_捷豹组.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -171,51 +171,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>New Feature</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝重复支付流水问题</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'fu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>chong'fu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhi'fu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>liu'shui</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>wen't</t>
-    </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>payapi</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>renter</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>施超</t>
-    <rPh sb="0" eb="1">
-      <t>shi'c</t>
-    </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>武孟华</t>
     <rPh sb="0" eb="1">
       <t>w'm'h</t>
@@ -230,58 +185,43 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>收款账号墨果切换到朔羡(IOS微信支付3.3.0版本提示升级)</t>
+    <t>吴永宇</t>
     <rPh sb="0" eb="1">
-      <t>shou'k</t>
+      <t>wu'yong'yu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yong</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>zhang'h</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>mo'guo</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>qie'h</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shuo</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xian</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>wei'xin</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zhi'fu</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ban'b</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ti'shi</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>sheng'ji</t>
+      <t>yu</t>
     </rPh>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>陈美</t>
+    <t>扫码支付点击报空指针</t>
     <rPh sb="0" eb="1">
-      <t>chen'm</t>
+      <t>sao'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kong'zhi'z</t>
     </rPh>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>pass</t>
+    <t>Fix bug</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>y</t>
+    <t>renterembed</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -393,6 +333,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -400,6 +341,7 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -523,7 +465,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,6 +526,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -734,7 +688,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="26">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -749,6 +703,8 @@
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
@@ -757,6 +713,8 @@
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1130,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:P3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1230,45 +1188,39 @@
         <v>43</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="16">
-        <v>42670</v>
+        <v>42671</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="16">
-        <v>42670</v>
+        <v>42671</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
-      <c r="N2" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="16">
-        <v>42670</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>55</v>
-      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="24"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="21"/>
@@ -1281,49 +1233,21 @@
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="16">
-        <v>42670</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="16">
-        <v>42670</v>
-      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="16">
-        <v>42670</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>55</v>
-      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="21"/>

--- a/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_捷豹组.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>No</t>
   </si>
@@ -171,6 +171,51 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>New Feature</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝重复支付流水问题</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chong'fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>liu'shui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wen't</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>payapi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <rPh sb="0" eb="1">
+      <t>shi'c</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>武孟华</t>
     <rPh sb="0" eb="1">
       <t>w'm'h</t>
@@ -185,43 +230,58 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>吴永宇</t>
+    <t>收款账号墨果切换到朔羡(IOS微信支付3.3.0版本提示升级)</t>
     <rPh sb="0" eb="1">
-      <t>wu'yong'yu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yong</t>
+      <t>shou'k</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>yu</t>
+      <t>zhang'h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mo'guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qie'h</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wei'xin</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ban'b</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ti'shi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>sheng'ji</t>
     </rPh>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>扫码支付点击报空指针</t>
+    <t>陈美</t>
     <rPh sb="0" eb="1">
-      <t>sao'm</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi'fu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dian'ji</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>bao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>kong'zhi'z</t>
+      <t>chen'm</t>
     </rPh>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Fix bug</t>
+    <t>pass</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>renterembed</t>
+    <t>y</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1088,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1188,39 +1248,45 @@
         <v>43</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="16">
-        <v>42671</v>
+        <v>42670</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="16">
-        <v>42671</v>
+        <v>42670</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="24" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="16">
+        <v>42670</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="21"/>
@@ -1233,21 +1299,49 @@
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="B3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="16">
+        <v>42670</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="16">
+        <v>42670</v>
+      </c>
       <c r="J3" s="15"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="24"/>
+      <c r="K3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="16">
+        <v>42670</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="21"/>
